--- a/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.902957000000001</v>
+        <v>9.783791000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.796714</v>
+        <v>9.613726</v>
       </c>
       <c r="F2" t="n">
-        <v>9.342141</v>
+        <v>9.495749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.106243000000001</v>
+        <v>0.170065000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5608160000000009</v>
+        <v>0.2880420000000008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.613726</v>
+        <v>9.299393999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.495749</v>
+        <v>9.902957000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9.458392999999999</v>
+        <v>9.796714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1179769999999998</v>
+        <v>-0.6035630000000012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1553330000000006</v>
+        <v>-0.4973200000000002</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>7.233256</v>
+      </c>
+      <c r="E4" t="n">
         <v>7.271142</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.988338</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.367869</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.2828040000000005</v>
+        <v>-0.03788600000000031</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9032730000000004</v>
+        <v>0.2449180000000002</v>
       </c>
     </row>
     <row r="5">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>7.203859</v>
+      </c>
+      <c r="E5" t="n">
         <v>7.19971</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.360211</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.921549</v>
-      </c>
       <c r="G5" t="n">
-        <v>-0.160501</v>
+        <v>0.004148999999999958</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7218390000000001</v>
+        <v>-0.156352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.058397</v>
+        <v>6.905352</v>
       </c>
       <c r="E6" t="n">
-        <v>7.262417</v>
+        <v>4.935309</v>
       </c>
       <c r="F6" t="n">
-        <v>7.317609</v>
+        <v>5.072082</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2040199999999999</v>
+        <v>1.970043</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2592119999999998</v>
+        <v>1.83327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.935309</v>
+        <v>6.436456</v>
       </c>
       <c r="E7" t="n">
-        <v>5.072082</v>
+        <v>7.058397</v>
       </c>
       <c r="F7" t="n">
-        <v>4.73556</v>
+        <v>7.262417</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1367729999999998</v>
+        <v>-0.6219410000000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1997489999999997</v>
+        <v>-0.8259610000000004</v>
       </c>
     </row>
     <row r="8">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>5.025197</v>
+      </c>
+      <c r="E8" t="n">
         <v>4.877629</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.460704</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.369493</v>
-      </c>
       <c r="G8" t="n">
-        <v>2.416925</v>
+        <v>0.1475680000000006</v>
       </c>
       <c r="H8" t="n">
-        <v>2.508136</v>
+        <v>2.564493000000001</v>
       </c>
     </row>
     <row r="9">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4.949731</v>
+      </c>
+      <c r="E9" t="n">
         <v>4.819866</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.630445</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.30574</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.1894210000000003</v>
+        <v>0.1298649999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5141260000000001</v>
+        <v>0.319286</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>4.824868</v>
+      </c>
+      <c r="E10" t="n">
         <v>4.733788</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.908715</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.937727</v>
-      </c>
       <c r="G10" t="n">
-        <v>-0.1749270000000003</v>
+        <v>0.09108000000000072</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2039390000000001</v>
+        <v>-0.08384699999999956</v>
       </c>
     </row>
     <row r="11">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>4.596682</v>
+      </c>
+      <c r="E11" t="n">
         <v>4.507465</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.590928</v>
       </c>
-      <c r="F11" t="n">
-        <v>4.791926</v>
-      </c>
       <c r="G11" t="n">
-        <v>-0.08346300000000006</v>
+        <v>0.08921700000000055</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2844610000000003</v>
+        <v>0.005754000000000481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.776668</v>
+        <v>4.547104</v>
       </c>
       <c r="E12" t="n">
-        <v>3.865115</v>
+        <v>0.953632</v>
       </c>
       <c r="F12" t="n">
-        <v>4.227279</v>
+        <v>0.977451</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08844699999999994</v>
+        <v>3.593472</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4506110000000003</v>
+        <v>3.569653</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE047A01021</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Grasim Industries Ltd</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.416975</v>
+        <v>4.218914</v>
       </c>
       <c r="E13" t="n">
-        <v>3.279311</v>
+        <v>2.04832</v>
       </c>
       <c r="F13" t="n">
-        <v>3.481114</v>
+        <v>1.971536</v>
       </c>
       <c r="G13" t="n">
-        <v>0.137664</v>
+        <v>2.170594</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06413899999999995</v>
+        <v>2.247378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Grasim Industries Ltd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.033516</v>
+        <v>3.598365</v>
       </c>
       <c r="E14" t="n">
-        <v>1.935827</v>
+        <v>3.416975</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3.279311</v>
       </c>
       <c r="G14" t="n">
-        <v>1.097689</v>
+        <v>0.1813899999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>3.033516</v>
+        <v>0.3190539999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.613307</v>
+        <v>3.351149</v>
       </c>
       <c r="E15" t="n">
-        <v>2.726451</v>
+        <v>3.776668</v>
       </c>
       <c r="F15" t="n">
-        <v>2.865513</v>
+        <v>3.865115</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1131440000000001</v>
+        <v>-0.425519</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2522060000000002</v>
+        <v>-0.5139659999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.073086</v>
+        <v>2.55428</v>
       </c>
       <c r="E16" t="n">
-        <v>2.091793</v>
+        <v>2.613307</v>
       </c>
       <c r="F16" t="n">
-        <v>2.288813</v>
+        <v>2.726451</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01870700000000003</v>
+        <v>-0.05902699999999994</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2157270000000002</v>
+        <v>-0.1721710000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.04832</v>
+        <v>1.976361</v>
       </c>
       <c r="E17" t="n">
-        <v>1.971536</v>
+        <v>2.073086</v>
       </c>
       <c r="F17" t="n">
-        <v>1.943084</v>
+        <v>2.091793</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07678399999999996</v>
+        <v>-0.09672499999999995</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1052359999999999</v>
+        <v>-0.115432</v>
       </c>
     </row>
     <row r="18">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1.891517</v>
+      </c>
+      <c r="E18" t="n">
         <v>1.862128</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.899056</v>
       </c>
-      <c r="F18" t="n">
-        <v>2.060889</v>
-      </c>
       <c r="G18" t="n">
-        <v>-0.03692800000000007</v>
+        <v>0.02938899999999989</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.198761</v>
+        <v>-0.007539000000000184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.853137</v>
+        <v>1.815095</v>
       </c>
       <c r="E19" t="n">
-        <v>1.772647</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.775955</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08048999999999995</v>
+        <v>1.815095</v>
       </c>
       <c r="H19" t="n">
-        <v>1.077182</v>
+        <v>1.815095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE019C01026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Himadri Speciality Chemical Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.46356</v>
+        <v>0.927695</v>
       </c>
       <c r="E20" t="n">
-        <v>1.505852</v>
+        <v>0.9294480000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1.31335</v>
+        <v>0.8262930000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.042292</v>
+        <v>-0.001753000000000005</v>
       </c>
       <c r="H20" t="n">
-        <v>0.15021</v>
+        <v>0.101402</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE781S01027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Ventive Hospitality Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.298806</v>
+        <v>0.882671</v>
       </c>
       <c r="E21" t="n">
-        <v>1.353385</v>
+        <v>0.854077</v>
       </c>
       <c r="F21" t="n">
-        <v>1.367956</v>
+        <v>0.807921</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05457900000000016</v>
+        <v>0.02859400000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.06915000000000004</v>
+        <v>0.07474999999999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.981754</v>
+        <v>0.748248</v>
       </c>
       <c r="E22" t="n">
-        <v>0.957019</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02473500000000006</v>
+        <v>0.748248</v>
       </c>
       <c r="H22" t="n">
-        <v>0.981754</v>
+        <v>0.748248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.953632</v>
+        <v>0.601453</v>
       </c>
       <c r="E23" t="n">
-        <v>0.977451</v>
+        <v>0.632489</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02381899999999992</v>
+        <v>-0.03103599999999995</v>
       </c>
       <c r="H23" t="n">
-        <v>0.953632</v>
+        <v>0.601453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE019C01026</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Himadri Speciality Chemical Limited</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9294480000000001</v>
+        <v>0.552926</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8262930000000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.915729</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.103155</v>
+        <v>0.552926</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01371900000000004</v>
+        <v>0.552926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE781S01027</t>
+          <t>INE281B01032</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ventive Hospitality Limited</t>
+          <t>Lloyds Metals And Energy Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.854077</v>
+        <v>0.400783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.807921</v>
+        <v>0.453962</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8244629999999999</v>
+        <v>0.415565</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04615599999999997</v>
+        <v>-0.05317899999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02961400000000003</v>
+        <v>-0.01478200000000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE101I01011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Afcons Infrastructure Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.632489</v>
+        <v>0.346437</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.382479</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.395928</v>
       </c>
       <c r="G26" t="n">
-        <v>0.632489</v>
+        <v>-0.03604200000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0.632489</v>
+        <v>-0.04949100000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE281B01032</t>
+          <t>INE069I01010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lloyds Metals And Energy Limited</t>
+          <t>Embassy Developments Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.453962</v>
+        <v>0.292822</v>
       </c>
       <c r="E27" t="n">
-        <v>0.415565</v>
+        <v>0.246078</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446805</v>
+        <v>0.320389</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03839699999999996</v>
+        <v>0.04674400000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007156999999999969</v>
+        <v>-0.02756699999999995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE101I01011</t>
+          <t>INE0QN801017</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Afcons Infrastructure Limited</t>
+          <t>Krystal Integrated Services Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.382479</v>
+        <v>0.269236</v>
       </c>
       <c r="E28" t="n">
-        <v>0.395928</v>
+        <v>0.219008</v>
       </c>
       <c r="F28" t="n">
-        <v>0.44146</v>
+        <v>0.230166</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01344899999999999</v>
+        <v>0.05022799999999997</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05898100000000001</v>
+        <v>0.03906999999999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE696F01016</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Juniper Hotels Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,30 +1356,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2989</v>
+        <v>0.258687</v>
       </c>
       <c r="E29" t="n">
-        <v>0.300161</v>
+        <v>0.274051</v>
       </c>
       <c r="F29" t="n">
-        <v>0.295937</v>
+        <v>0.256802</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.001261000000000012</v>
+        <v>-0.01536399999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002962999999999993</v>
+        <v>0.001885000000000026</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE696F01016</t>
+          <t>INE192B01031</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Juniper Hotels Limited</t>
+          <t>Welspun Living Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1388,30 +1388,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.274051</v>
+        <v>0.155441</v>
       </c>
       <c r="E30" t="n">
-        <v>0.256802</v>
+        <v>0.154964</v>
       </c>
       <c r="F30" t="n">
-        <v>0.295133</v>
+        <v>0.175052</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01724900000000001</v>
+        <v>0.0004770000000000052</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02108199999999999</v>
+        <v>-0.01961100000000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1420,30 +1420,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.263262</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.45028</v>
       </c>
       <c r="G31" t="n">
-        <v>0.263262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.263262</v>
+        <v>-3.45028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE069I01010</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassy Developments Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1452,30 +1452,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.246078</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320389</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387239</v>
+        <v>0.648289</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.07431099999999999</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.141161</v>
+        <v>-0.648289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE0QN801017</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Krystal Integrated Services Limited</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1484,30 +1484,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.219008</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.230166</v>
+        <v>0.263262</v>
       </c>
       <c r="F33" t="n">
-        <v>0.254633</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.011158</v>
+        <v>-0.263262</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.03562499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE192B01031</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Welspun Living Limited</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.154964</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.175052</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.153362</v>
+        <v>0.983306</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02008800000000002</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001601999999999992</v>
+        <v>-0.983306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1551,27 +1551,27 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.453289</v>
+        <v>0.981754</v>
       </c>
       <c r="F35" t="n">
-        <v>1.388588</v>
+        <v>0.957019</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.453289</v>
+        <v>-0.981754</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.388588</v>
+        <v>-0.957019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corp Ltd</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1583,27 +1583,27 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.46356</v>
       </c>
       <c r="F36" t="n">
-        <v>1.285099</v>
+        <v>1.505852</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-1.46356</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.285099</v>
+        <v>-1.505852</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1615,27 +1615,27 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.983306</v>
+        <v>3.033516</v>
       </c>
       <c r="F37" t="n">
-        <v>1.026296</v>
+        <v>1.935827</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.983306</v>
+        <v>-3.033516</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.026296</v>
+        <v>-1.935827</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE285K01026</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Techno Electric &amp; Engineering Co Ltd</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1650,24 +1650,24 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.047635</v>
+        <v>1.453289</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.047635</v>
+        <v>-1.453289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1679,27 +1679,27 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.648289</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.601787</v>
+        <v>0.852319</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.648289</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.601787</v>
+        <v>-0.852319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1711,27 +1711,27 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.45028</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.810277</v>
+        <v>0.048701</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.45028</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.810277</v>
+        <v>-0.048701</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1743,27 +1743,27 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.852319</v>
+        <v>1.853137</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.772647</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.852319</v>
+        <v>-1.853137</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.772647</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1775,27 +1775,27 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.048701</v>
+        <v>1.298806</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.353385</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.048701</v>
+        <v>-1.298806</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-1.353385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1807,48 +1807,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.2989</v>
       </c>
       <c r="F43" t="n">
-        <v>1.341811</v>
+        <v>0.300161</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-0.2989</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.341811</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>INE134E01011</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>quant ELSS Tax Saver Fund</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.359737</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-1.359737</v>
+        <v>-0.300161</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.783791000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.613726</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.495749</v>
-      </c>
       <c r="G2" t="n">
+        <v>9.458392999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.170065000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.2880420000000008</v>
+      <c r="I2" t="n">
+        <v>0.3253980000000016</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.299393999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.902957000000001</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.796714</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.342141</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.6035630000000012</v>
       </c>
-      <c r="H3" t="n">
-        <v>-0.4973200000000002</v>
+      <c r="I3" t="n">
+        <v>-0.04274700000000031</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.233256</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.271142</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.988338</v>
-      </c>
       <c r="G4" t="n">
+        <v>6.367869</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.03788600000000031</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.2449180000000002</v>
+      <c r="I4" t="n">
+        <v>0.8653870000000001</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.203859</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.19971</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.360211</v>
-      </c>
       <c r="G5" t="n">
+        <v>7.921549</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.004148999999999958</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.156352</v>
+      <c r="I5" t="n">
+        <v>-0.7176900000000002</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.905352</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.935309</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.072082</v>
-      </c>
       <c r="G6" t="n">
+        <v>4.73556</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.970043</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.83327</v>
+      <c r="I6" t="n">
+        <v>2.169791999999999</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.436456</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>7.058397</v>
       </c>
-      <c r="F7" t="n">
-        <v>7.262417</v>
-      </c>
       <c r="G7" t="n">
+        <v>7.317609</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.6219410000000005</v>
       </c>
-      <c r="H7" t="n">
-        <v>-0.8259610000000004</v>
+      <c r="I7" t="n">
+        <v>-0.8811530000000003</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.025197</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.877629</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.460704</v>
-      </c>
       <c r="G8" t="n">
+        <v>2.369493</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1475680000000006</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.564493000000001</v>
+      <c r="I8" t="n">
+        <v>2.655704000000001</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.949731</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.819866</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.630445</v>
-      </c>
       <c r="G9" t="n">
+        <v>4.30574</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1298649999999997</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.319286</v>
+      <c r="I9" t="n">
+        <v>0.6439909999999998</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.824868</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.733788</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.908715</v>
-      </c>
       <c r="G10" t="n">
+        <v>4.937727</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.09108000000000072</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.08384699999999956</v>
+      <c r="I10" t="n">
+        <v>-0.1128589999999994</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.596682</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.507465</v>
       </c>
-      <c r="F11" t="n">
-        <v>4.590928</v>
-      </c>
       <c r="G11" t="n">
+        <v>4.791926</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.08921700000000055</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.005754000000000481</v>
+      <c r="I11" t="n">
+        <v>-0.1952439999999998</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>4.547104</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.953632</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.977451</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.593472</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.569653</v>
+      <c r="I12" t="n">
+        <v>4.547104</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>4.218914</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.04832</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.971536</v>
-      </c>
       <c r="G13" t="n">
+        <v>1.943084</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.170594</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.247378</v>
+      <c r="I13" t="n">
+        <v>2.27583</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>3.598365</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.416975</v>
       </c>
-      <c r="F14" t="n">
-        <v>3.279311</v>
-      </c>
       <c r="G14" t="n">
+        <v>3.481114</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1813899999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.3190539999999999</v>
+      <c r="I14" t="n">
+        <v>0.117251</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>3.351149</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.776668</v>
       </c>
-      <c r="F15" t="n">
-        <v>3.865115</v>
-      </c>
       <c r="G15" t="n">
+        <v>4.227279</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.425519</v>
       </c>
-      <c r="H15" t="n">
-        <v>-0.5139659999999999</v>
+      <c r="I15" t="n">
+        <v>-0.8761300000000003</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>2.55428</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2.613307</v>
       </c>
-      <c r="F16" t="n">
-        <v>2.726451</v>
-      </c>
       <c r="G16" t="n">
+        <v>2.865513</v>
+      </c>
+      <c r="H16" t="n">
         <v>-0.05902699999999994</v>
       </c>
-      <c r="H16" t="n">
-        <v>-0.1721710000000001</v>
+      <c r="I16" t="n">
+        <v>-0.3112330000000001</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.976361</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.073086</v>
       </c>
-      <c r="F17" t="n">
-        <v>2.091793</v>
-      </c>
       <c r="G17" t="n">
+        <v>2.288813</v>
+      </c>
+      <c r="H17" t="n">
         <v>-0.09672499999999995</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.115432</v>
+      <c r="I17" t="n">
+        <v>-0.3124520000000002</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.891517</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.862128</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.899056</v>
-      </c>
       <c r="G18" t="n">
+        <v>2.060889</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.02938899999999989</v>
       </c>
-      <c r="H18" t="n">
-        <v>-0.007539000000000184</v>
+      <c r="I18" t="n">
+        <v>-0.1693720000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1035,21 +1125,26 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.815095</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.815095</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>1.815095</v>
       </c>
+      <c r="I19" t="n">
+        <v>1.815095</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1067,20 +1162,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>0.927695</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.9294480000000001</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.8262930000000001</v>
-      </c>
       <c r="G20" t="n">
+        <v>0.915729</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.001753000000000005</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.101402</v>
+      <c r="I20" t="n">
+        <v>0.01196600000000003</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>0.882671</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.854077</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.807921</v>
-      </c>
       <c r="G21" t="n">
+        <v>0.8244629999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.02859400000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.07474999999999998</v>
+      <c r="I21" t="n">
+        <v>0.05820800000000004</v>
       </c>
     </row>
     <row r="22">
@@ -1131,21 +1236,26 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0.748248</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.748248</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0.748248</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.748248</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1163,19 +1273,24 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0.601453</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.632489</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.03103599999999995</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.601453</v>
       </c>
     </row>
@@ -1195,21 +1310,26 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0.552926</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.552926</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0.552926</v>
       </c>
+      <c r="I24" t="n">
+        <v>0.552926</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1227,20 +1347,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>0.400783</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.453962</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.415565</v>
-      </c>
       <c r="G25" t="n">
+        <v>0.446805</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.05317899999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>-0.01478200000000002</v>
+      <c r="I25" t="n">
+        <v>-0.04602200000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1259,20 +1384,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>0.346437</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.382479</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.395928</v>
-      </c>
       <c r="G26" t="n">
+        <v>0.44146</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.03604200000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>-0.04949100000000001</v>
+      <c r="I26" t="n">
+        <v>-0.09502300000000002</v>
       </c>
     </row>
     <row r="27">
@@ -1291,20 +1421,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>0.292822</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.246078</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.320389</v>
-      </c>
       <c r="G27" t="n">
+        <v>0.387239</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.04674400000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>-0.02756699999999995</v>
+      <c r="I27" t="n">
+        <v>-0.09441699999999997</v>
       </c>
     </row>
     <row r="28">
@@ -1323,20 +1458,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>0.269236</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.219008</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.230166</v>
-      </c>
       <c r="G28" t="n">
+        <v>0.254633</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.05022799999999997</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.03906999999999997</v>
+      <c r="I28" t="n">
+        <v>0.01460299999999998</v>
       </c>
     </row>
     <row r="29">
@@ -1355,20 +1495,25 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>0.258687</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.274051</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.256802</v>
-      </c>
       <c r="G29" t="n">
+        <v>0.295133</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.01536399999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.001885000000000026</v>
+      <c r="I29" t="n">
+        <v>-0.03644599999999998</v>
       </c>
     </row>
     <row r="30">
@@ -1387,31 +1532,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>0.155441</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.154964</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.175052</v>
-      </c>
       <c r="G30" t="n">
+        <v>0.153362</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.0004770000000000052</v>
       </c>
-      <c r="H30" t="n">
-        <v>-0.01961100000000002</v>
+      <c r="I30" t="n">
+        <v>0.002078999999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1419,31 +1569,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.45028</v>
+        <v>1.46356</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.31335</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.45028</v>
+        <v>-1.46356</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1.31335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1451,31 +1606,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.648289</v>
+        <v>3.033516</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.648289</v>
+        <v>-3.033516</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Bharat Petroleum Corp Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1483,31 +1643,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>0.263262</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.263262</v>
+        <v>1.285099</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1.285099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1515,31 +1680,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.983306</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.601787</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.983306</v>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.601787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1547,31 +1717,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>0.981754</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.957019</v>
+        <v>0.263262</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.981754</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.957019</v>
+        <v>-0.263262</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1579,31 +1754,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>1.46356</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.505852</v>
+        <v>1.298806</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.46356</v>
+        <v>1.367956</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.505852</v>
+        <v>-1.298806</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1.367956</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1611,31 +1791,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>3.033516</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.935827</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.033516</v>
+        <v>1.341811</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.935827</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1.341811</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE285K01026</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Techno Electric &amp; Engineering Co Ltd</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1643,31 +1828,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.453289</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.047635</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.453289</v>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.047635</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1675,31 +1865,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.852319</v>
+        <v>0.2989</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.295937</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.852319</v>
+        <v>-0.2989</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.295937</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1707,31 +1902,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.048701</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.388588</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.048701</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1.388588</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1739,31 +1939,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>1.853137</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.772647</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.853137</v>
+        <v>3.810277</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.772647</v>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-3.810277</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1771,31 +1976,36 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>1.298806</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.353385</v>
+        <v>0.981754</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.298806</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.353385</v>
+        <v>-0.981754</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Power Finance Corporation Ltd.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1803,20 +2013,99 @@
           <t>quant ELSS Tax Saver Fund</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2989</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.300161</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2989</v>
+        <v>1.359737</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.300161</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1.359737</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>INE129A01019</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GAIL (India) Limited</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.026296</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-1.026296</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.853137</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.775955</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1.853137</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.775955</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ELSS_Tax_Saver_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.783791000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.613726</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.458392999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.170065000000001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.3253980000000016</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.299393999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.902957000000001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.342141</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.6035630000000012</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.04274700000000031</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.233256</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.271142</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.367869</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.03788600000000031</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.8653870000000001</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.203859</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.19971</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.921549</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.004148999999999958</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.7176900000000002</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.905352</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.935309</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.73556</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1.970043</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2.169791999999999</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.436456</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>7.058397</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>7.317609</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.6219410000000005</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.8811530000000003</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.025197</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.877629</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.369493</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.1475680000000006</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.655704000000001</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.949731</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.819866</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.30574</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.1298649999999997</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.6439909999999998</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.824868</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.733788</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>4.937727</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.09108000000000072</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.1128589999999994</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.596682</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.507465</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4.791926</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.08921700000000055</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.1952439999999998</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.547104</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.953632</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.593472</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4.547104</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>4.218914</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.04832</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1.943084</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>2.170594</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>2.27583</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.598365</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.416975</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3.481114</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.1813899999999999</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.117251</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.351149</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.776668</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>4.227279</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-0.425519</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.8761300000000003</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2.55428</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>2.613307</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>2.865513</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-0.05902699999999994</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>-0.3112330000000001</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.976361</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2.073086</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2.288813</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.09672499999999995</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.3124520000000002</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.891517</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.862128</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.060889</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.02938899999999989</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.1693720000000001</v>
       </c>
     </row>
@@ -1122,29 +1212,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.815095</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.815095</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1.815095</v>
       </c>
+      <c r="J19" t="n">
+        <v>1.815095</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.927695</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.9294480000000001</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.915729</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.001753000000000005</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.01196600000000003</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.882671</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.854077</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.8244629999999999</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.02859400000000001</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.05820800000000004</v>
       </c>
     </row>
@@ -1233,29 +1338,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.748248</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.748248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0.748248</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.748248</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.601453</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.632489</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-0.03103599999999995</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.601453</v>
       </c>
     </row>
@@ -1307,29 +1422,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.552926</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.552926</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0.552926</v>
       </c>
+      <c r="J24" t="n">
+        <v>0.552926</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.400783</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.453962</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.446805</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-0.05317899999999998</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-0.04602200000000001</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.346437</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.382479</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.44146</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-0.03604200000000002</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-0.09502300000000002</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.292822</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.246078</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.387239</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.04674400000000004</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-0.09441699999999997</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.269236</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.219008</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.254633</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>0.05022799999999997</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.01460299999999998</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.258687</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.274051</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.295133</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>-0.01536399999999999</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-0.03644599999999998</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.155441</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.154964</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.153362</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.0004770000000000052</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.002078999999999998</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.46356</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1.31335</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>-1.46356</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-1.31335</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>3.033516</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>-3.033516</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.285099</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>-1.285099</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.601787</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>-0.601787</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.263262</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>-0.263262</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.298806</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1.367956</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>-1.298806</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>-1.367956</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.341811</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>-1.341811</v>
       </c>
     </row>
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.047635</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>-0.047635</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2989</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.295937</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-0.2989</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-0.295937</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.388588</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>-1.388588</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.810277</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>-3.810277</v>
       </c>
     </row>
@@ -1973,27 +2178,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.981754</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>-0.981754</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2010,27 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.359737</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>-1.359737</v>
       </c>
     </row>
@@ -2047,27 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.026296</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>-1.026296</v>
       </c>
     </row>
@@ -2084,27 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>quant ELSS Tax Saver Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>quant ELSS Tax Saver Fund</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.853137</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.775955</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-1.853137</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.775955</v>
       </c>
     </row>
